--- a/BoundFlasher.xlsx
+++ b/BoundFlasher.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr updateLinks="never"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Library/Mobile Documents/com~apple~CloudDocs/HCMUT/KÌ 6/LSI Logic Design/THỰC HÀNH/LSI_Design/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/67702ad76dffec56/Documents/thiết kế vi mạch/thí nghiệm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEB69B1-3085-BC42-BCF7-EBC669FFDE9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{6CEB69B1-3085-BC42-BCF7-EBC669FFDE9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F317DADD-6C94-448D-A6D7-E0E3957B0200}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20360" tabRatio="643" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="13" r:id="rId1"/>
@@ -57,15 +57,15 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <customWorkbookViews>
+    <customWorkbookView name="Giang Truong Le. Nguyen - Personal View" guid="{D6408F3F-69A9-4377-B307-B0A0F5ECDF86}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="3"/>
+    <customWorkbookView name="Phong Thanh. Phan - Personal View" guid="{BBCD1273-FB62-4046-AADE-F9CEEA687EB3}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="5"/>
     <customWorkbookView name="Hung Quang. Truong - Personal View" guid="{C61E42EC-A28A-4F34-B1F0-5B0C369C3BFF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1864" windowHeight="1218" activeSheetId="6"/>
-    <customWorkbookView name="Phong Thanh. Phan - Personal View" guid="{BBCD1273-FB62-4046-AADE-F9CEEA687EB3}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="5"/>
-    <customWorkbookView name="Giang Truong Le. Nguyen - Personal View" guid="{D6408F3F-69A9-4377-B307-B0A0F5ECDF86}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="3"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
   <si>
     <t>&lt;Revision history&gt;</t>
   </si>
@@ -160,15 +160,6 @@
     <t>Write all writable register values and read back to check results</t>
   </si>
   <si>
-    <t>This test is called angry_birds_style_blending_test. It runs a simple fragment shading test with varying /texturing/alpha test/blending</t>
-  </si>
-  <si>
-    <t>Simple test to see if the bus works properly</t>
-  </si>
-  <si>
-    <t>Simple compute job to test basic integer operations and load/store</t>
-  </si>
-  <si>
     <t>A simple shader test with vertex shader</t>
   </si>
   <si>
@@ -221,6 +212,26 @@
   </si>
   <si>
     <t>compare</t>
+  </si>
+  <si>
+    <t>Test if memory block works properly with parameter.
+Test the rst button can reset every time which is not depend on clk.</t>
+  </si>
+  <si>
+    <t>Test the rst button can reset every time which is not depend on clk.</t>
+  </si>
+  <si>
+    <t>Test if memory block works properly with different parameter.
+Test the rst button can reset every time which is not depend on clk.</t>
+  </si>
+  <si>
+    <t>Add testcase explanation of Memory module</t>
+  </si>
+  <si>
+    <t>Mar. 08, 2022</t>
+  </si>
+  <si>
+    <t>Minh Tú Lê Hoàng</t>
   </si>
 </sst>
 </file>
@@ -3635,7 +3646,7 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="110" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3663,9 +3674,6 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="42" fillId="50" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3681,17 +3689,8 @@
     <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="49" fillId="0" borderId="0" xfId="86" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3924,75 +3923,75 @@
   </cellXfs>
   <cellStyles count="586">
     <cellStyle name="〰" xfId="88" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="〰〰" xfId="89" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="〰〰　0" xfId="90" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="〰〰　0 2" xfId="91" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="〰〰　0 3" xfId="92" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="〰〰　0???" xfId="93" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="〰 2" xfId="94" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="〰〰 2" xfId="95" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="〰 2 2" xfId="461" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="〰 2 2 2" xfId="551" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="〰 2 3" xfId="543" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="〰 3" xfId="96" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="〰〰 3" xfId="97" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="〰 3 2" xfId="462" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="〰 3 2 2" xfId="552" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
     <cellStyle name="〰 3 3" xfId="544" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="〰 4" xfId="98" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="〰〰 4" xfId="99" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="〰 4 2" xfId="463" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
     <cellStyle name="〰 4 2 2" xfId="553" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="〰 4 3" xfId="545" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
     <cellStyle name="〰 5" xfId="100" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="〰〰 5" xfId="101" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
     <cellStyle name="〰 5 2" xfId="464" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
     <cellStyle name="〰 5 2 2" xfId="554" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
     <cellStyle name="〰 5 3" xfId="546" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
     <cellStyle name="〰 6" xfId="102" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="〰〰 6" xfId="103" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
     <cellStyle name="〰 6 2" xfId="465" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
     <cellStyle name="〰 6 2 2" xfId="555" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
     <cellStyle name="〰 6 3" xfId="547" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
     <cellStyle name="〰 7" xfId="104" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="〰〰 7" xfId="105" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
     <cellStyle name="〰 7 2" xfId="466" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
     <cellStyle name="〰 7 2 2" xfId="556" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
     <cellStyle name="〰 7 3" xfId="548" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
     <cellStyle name="〰 8" xfId="460" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
     <cellStyle name="〰 8 2" xfId="550" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
     <cellStyle name="〰 9" xfId="542" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="〰〰" xfId="89" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="〰〰　0" xfId="90" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="〰〰　0 2" xfId="91" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="〰〰　0 3" xfId="92" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="〰〰　0???" xfId="93" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="〰〰 2" xfId="95" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="〰〰 3" xfId="97" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="〰〰 4" xfId="99" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="〰〰 5" xfId="101" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="〰〰 6" xfId="103" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="〰〰 7" xfId="105" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="〰〰〰0" xfId="112" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="〰〰〰0 2" xfId="115" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="〰〰〰0 3" xfId="118" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="〰〰〰0 4" xfId="121" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="〰〰〰0 5" xfId="124" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="〰〰〰0 6" xfId="127" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="〰〰〰0 7" xfId="130" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="〰〰〰0???_Panther_SH7764_Checklist_SSI_V0.5_NewTemp" xfId="134" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="〰〰〰0?????" xfId="132" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="〰〰??" xfId="107" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="〰〰0" xfId="111" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="〰〰0 2" xfId="114" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="〰〰0 3" xfId="117" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="〰〰0 4" xfId="120" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="〰〰0 5" xfId="123" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="〰〰0 6" xfId="126" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="〰〰0 7" xfId="129" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="〰〰0????_Panther_SH7764_Checklist_SSI_V0.5_NewTemp_1" xfId="133" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
     <cellStyle name="〰?" xfId="106" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
     <cellStyle name="〰? 2" xfId="527" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
     <cellStyle name="〰? 2 2" xfId="580" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="〰〰??" xfId="107" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="???〰〰0???????" xfId="108" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
     <cellStyle name="〰?_Panther_SH7764_Checklist_SSI_V0.5_NewTemp" xfId="109" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
     <cellStyle name="〰0〰" xfId="110" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="〰〰0" xfId="111" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="〰〰〰0" xfId="112" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
     <cellStyle name="〰0〰 2" xfId="113" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="〰〰0 2" xfId="114" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="〰〰〰0 2" xfId="115" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
     <cellStyle name="〰0〰 3" xfId="116" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="〰〰0 3" xfId="117" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="〰〰〰0 3" xfId="118" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
     <cellStyle name="〰0〰 4" xfId="119" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="〰〰0 4" xfId="120" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="〰〰〰0 4" xfId="121" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
     <cellStyle name="〰0〰 5" xfId="122" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="〰〰0 5" xfId="123" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="〰〰〰0 5" xfId="124" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
     <cellStyle name="〰0〰 6" xfId="125" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="〰〰0 6" xfId="126" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="〰〰〰0 6" xfId="127" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
     <cellStyle name="〰0〰 7" xfId="128" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="〰〰0 7" xfId="129" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="〰〰〰0 7" xfId="130" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
     <cellStyle name="〰0〰???" xfId="131" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="???〰〰0???????" xfId="108" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="〰〰〰0?????" xfId="132" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="〰〰0????_Panther_SH7764_Checklist_SSI_V0.5_NewTemp_1" xfId="133" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="〰〰〰0???_Panther_SH7764_Checklist_SSI_V0.5_NewTemp" xfId="134" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="2" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="3" builtinId="38" customBuiltin="1"/>
@@ -4103,9 +4102,9 @@
     <cellStyle name="Bad" xfId="43" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="44" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Calculation 2" xfId="532" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Close" xfId="182" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
     <cellStyle name="CndFrmStyl_0_0" xfId="183" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Excel Built-in Normal" xfId="184" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
     <cellStyle name="Explanatory Text" xfId="46" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Follow" xfId="185" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
@@ -4126,7 +4125,6 @@
     <cellStyle name="MOB3 2" xfId="191" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
     <cellStyle name="Neutral" xfId="54" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Neutral 2" xfId="531" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
-    <cellStyle name="NG" xfId="192" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
     <cellStyle name="NO" xfId="193" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="84" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
@@ -4144,6 +4142,7 @@
     <cellStyle name="Normal 8 2" xfId="549" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
     <cellStyle name="Note" xfId="55" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Note 2" xfId="534" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="NG" xfId="192" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
     <cellStyle name="O" xfId="198" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
     <cellStyle name="O 2" xfId="199" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
     <cellStyle name="O?" xfId="200" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
@@ -5114,238 +5113,249 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="C3:O32"/>
+  <dimension ref="C3:O39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="150" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30:M30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B14" zoomScale="150" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.05" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="2.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" style="1" customWidth="1"/>
-    <col min="5" max="12" width="8.1640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.1640625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="2.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="1" customWidth="1"/>
+    <col min="5" max="12" width="8.109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.109375" style="1" customWidth="1"/>
     <col min="15" max="15" width="22" style="1" customWidth="1"/>
-    <col min="16" max="307" width="8.1640625" style="1" customWidth="1"/>
+    <col min="16" max="307" width="8.109375" style="1" customWidth="1"/>
     <col min="308" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:9" ht="16" customHeight="1">
-      <c r="D3" s="43"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="45"/>
+    <row r="3" spans="4:9" ht="16.05" customHeight="1">
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="41"/>
     </row>
-    <row r="4" spans="4:9" ht="16" customHeight="1">
-      <c r="D4" s="46"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
+    <row r="4" spans="4:9" ht="16.05" customHeight="1">
+      <c r="D4" s="42"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
     </row>
-    <row r="10" spans="4:9" ht="40">
+    <row r="10" spans="4:9" ht="40.200000000000003">
       <c r="I10" s="2"/>
     </row>
-    <row r="12" spans="4:9" ht="28">
+    <row r="12" spans="4:9" ht="28.2">
       <c r="I12" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="14" spans="4:9" ht="16" customHeight="1">
-      <c r="I14" s="14" t="s">
-        <v>37</v>
+    <row r="14" spans="4:9" ht="16.05" customHeight="1">
+      <c r="I14" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="15" spans="4:9" ht="16" customHeight="1">
-      <c r="I15" s="13"/>
+    <row r="15" spans="4:9" ht="16.05" customHeight="1">
+      <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="4:9" ht="16" customHeight="1">
-      <c r="E16" s="16"/>
+    <row r="16" spans="4:9" ht="16.05" customHeight="1">
+      <c r="E16" s="14"/>
     </row>
-    <row r="20" spans="3:15" ht="16" customHeight="1">
+    <row r="20" spans="3:15" ht="16.05" customHeight="1">
       <c r="C20" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:15" ht="16" customHeight="1">
-      <c r="D22" s="47" t="s">
+    <row r="22" spans="3:15" ht="16.05" customHeight="1">
+      <c r="D22" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="75" t="s">
+      <c r="E22" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="75"/>
-      <c r="K22" s="75"/>
-      <c r="L22" s="75"/>
-      <c r="M22" s="75"/>
-      <c r="N22" s="48" t="s">
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="O22" s="10" t="s">
+      <c r="O22" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="3:15" ht="16" customHeight="1">
-      <c r="D23" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="78" t="s">
+    <row r="23" spans="3:15" ht="16.05" customHeight="1">
+      <c r="D23" s="72" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="79"/>
-      <c r="M23" s="80"/>
-      <c r="N23" s="72" t="s">
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="O23" s="49" t="s">
+      <c r="O23" s="45" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="3:15" ht="16" customHeight="1">
-      <c r="D24" s="77"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="82"/>
-      <c r="M24" s="83"/>
-      <c r="N24" s="73"/>
-      <c r="O24" s="50" t="s">
-        <v>39</v>
+    <row r="24" spans="3:15" ht="16.05" customHeight="1">
+      <c r="D24" s="73"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="78"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="69"/>
+      <c r="O24" s="46" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="25" spans="3:15" s="71" customFormat="1" ht="16" customHeight="1">
-      <c r="D25" s="17"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="9"/>
+    <row r="25" spans="3:15" s="67" customFormat="1" ht="16.05" customHeight="1">
+      <c r="D25" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="75"/>
+      <c r="L25" s="75"/>
+      <c r="M25" s="76"/>
+      <c r="N25" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="O25" s="45" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="26" spans="3:15" ht="16" customHeight="1">
-      <c r="D26" s="17"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="9"/>
+    <row r="26" spans="3:15" ht="16.05" customHeight="1">
+      <c r="D26" s="73"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="79"/>
+      <c r="N26" s="69"/>
+      <c r="O26" s="46"/>
     </row>
-    <row r="27" spans="3:15" ht="16" customHeight="1">
-      <c r="C27" s="3" t="s">
+    <row r="34" spans="3:14" ht="16.05" customHeight="1">
+      <c r="C34" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="3:15" ht="16" customHeight="1">
-      <c r="D29" s="47" t="s">
+    <row r="36" spans="3:14" ht="16.05" customHeight="1">
+      <c r="D36" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="75" t="s">
+      <c r="E36" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="75"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="75"/>
-      <c r="M29" s="75"/>
-      <c r="N29" s="47" t="s">
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="71"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="71"/>
+      <c r="N36" s="43" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="3:15" ht="16" customHeight="1">
-      <c r="D30" s="51">
+    <row r="37" spans="3:14" ht="16.05" customHeight="1">
+      <c r="D37" s="47">
         <v>1</v>
       </c>
-      <c r="E30" s="84" t="s">
+      <c r="E37" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="F30" s="84"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="84"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="84"/>
-      <c r="K30" s="84"/>
-      <c r="L30" s="84"/>
-      <c r="M30" s="84"/>
-      <c r="N30" s="52" t="s">
+      <c r="F37" s="80"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="80"/>
+      <c r="I37" s="80"/>
+      <c r="J37" s="80"/>
+      <c r="K37" s="80"/>
+      <c r="L37" s="80"/>
+      <c r="M37" s="80"/>
+      <c r="N37" s="48" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="3:15" ht="16" customHeight="1">
-      <c r="D31" s="51">
+    <row r="38" spans="3:14" ht="16.05" customHeight="1">
+      <c r="D38" s="47">
         <v>2</v>
       </c>
-      <c r="E31" s="74" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="74"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="74"/>
-      <c r="J31" s="74"/>
-      <c r="K31" s="74"/>
-      <c r="L31" s="74"/>
-      <c r="M31" s="74"/>
-      <c r="N31" s="52" t="s">
+      <c r="E38" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="70"/>
+      <c r="G38" s="70"/>
+      <c r="H38" s="70"/>
+      <c r="I38" s="70"/>
+      <c r="J38" s="70"/>
+      <c r="K38" s="70"/>
+      <c r="L38" s="70"/>
+      <c r="M38" s="70"/>
+      <c r="N38" s="48" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="3:15" ht="16" customHeight="1">
-      <c r="D32" s="51">
+    <row r="39" spans="3:14" ht="16.05" customHeight="1">
+      <c r="D39" s="47">
         <v>3</v>
       </c>
-      <c r="E32" s="74" t="s">
-        <v>41</v>
-      </c>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="74"/>
-      <c r="I32" s="74"/>
-      <c r="J32" s="74"/>
-      <c r="K32" s="74"/>
-      <c r="L32" s="74"/>
-      <c r="M32" s="74"/>
-      <c r="N32" s="52" t="s">
-        <v>36</v>
+      <c r="E39" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="70"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="70"/>
+      <c r="J39" s="70"/>
+      <c r="K39" s="70"/>
+      <c r="L39" s="70"/>
+      <c r="M39" s="70"/>
+      <c r="N39" s="48" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
     <mergeCell ref="N23:N24"/>
-    <mergeCell ref="E31:M31"/>
-    <mergeCell ref="E32:M32"/>
+    <mergeCell ref="E38:M38"/>
+    <mergeCell ref="E39:M39"/>
     <mergeCell ref="E22:M22"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="E23:M24"/>
-    <mergeCell ref="E29:M29"/>
-    <mergeCell ref="E30:M30"/>
+    <mergeCell ref="E36:M36"/>
+    <mergeCell ref="E37:M37"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:M26"/>
+    <mergeCell ref="N25:N26"/>
   </mergeCells>
   <pageMargins left="0.78680555555555554" right="0.78680555555555554" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="48" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5357,438 +5367,438 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:AS21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="5.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="30" customWidth="1"/>
-    <col min="2" max="2" width="6" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="31" customWidth="1"/>
-    <col min="5" max="5" width="38.1640625" style="32" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="32" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.6640625" style="32" customWidth="1"/>
-    <col min="8" max="9" width="16.6640625" style="33" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" style="33" customWidth="1"/>
-    <col min="11" max="11" width="23.33203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.1640625" style="34" customWidth="1"/>
-    <col min="13" max="16384" width="5.6640625" style="34"/>
+    <col min="1" max="1" width="5.6640625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="6" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="27" customWidth="1"/>
+    <col min="5" max="5" width="38.109375" style="28" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.6640625" style="28" customWidth="1"/>
+    <col min="8" max="9" width="16.6640625" style="29" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" style="29" customWidth="1"/>
+    <col min="11" max="11" width="23.33203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.109375" style="30" customWidth="1"/>
+    <col min="13" max="16384" width="5.6640625" style="30"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:45" ht="20">
+    <row r="2" spans="1:45" ht="20.399999999999999">
       <c r="B2" s="5"/>
       <c r="C2" s="4"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
     </row>
-    <row r="3" spans="1:45" ht="23">
+    <row r="3" spans="1:45" ht="22.8">
       <c r="B3" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
     </row>
-    <row r="4" spans="1:45" s="19" customFormat="1">
+    <row r="4" spans="1:45" s="15" customFormat="1">
       <c r="B4" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="20"/>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="20"/>
-      <c r="AF4" s="20"/>
-      <c r="AG4" s="20"/>
-      <c r="AH4" s="20"/>
-      <c r="AI4" s="20"/>
-      <c r="AJ4" s="20"/>
-      <c r="AK4" s="20"/>
-      <c r="AL4" s="20"/>
-      <c r="AM4" s="20"/>
-      <c r="AN4" s="20"/>
-      <c r="AO4" s="20"/>
-      <c r="AP4" s="20"/>
-      <c r="AQ4" s="20"/>
-      <c r="AR4" s="20"/>
-      <c r="AS4" s="20"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="16"/>
+      <c r="AG4" s="16"/>
+      <c r="AH4" s="16"/>
+      <c r="AI4" s="16"/>
+      <c r="AJ4" s="16"/>
+      <c r="AK4" s="16"/>
+      <c r="AL4" s="16"/>
+      <c r="AM4" s="16"/>
+      <c r="AN4" s="16"/>
+      <c r="AO4" s="16"/>
+      <c r="AP4" s="16"/>
+      <c r="AQ4" s="16"/>
+      <c r="AR4" s="16"/>
+      <c r="AS4" s="16"/>
     </row>
-    <row r="5" spans="1:45" s="19" customFormat="1">
+    <row r="5" spans="1:45" s="15" customFormat="1">
       <c r="B5" s="7"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="20"/>
-      <c r="AD5" s="20"/>
-      <c r="AE5" s="20"/>
-      <c r="AF5" s="20"/>
-      <c r="AG5" s="20"/>
-      <c r="AH5" s="20"/>
-      <c r="AI5" s="20"/>
-      <c r="AJ5" s="20"/>
-      <c r="AK5" s="20"/>
-      <c r="AL5" s="20"/>
-      <c r="AM5" s="20"/>
-      <c r="AN5" s="20"/>
-      <c r="AO5" s="20"/>
-      <c r="AP5" s="20"/>
-      <c r="AQ5" s="20"/>
-      <c r="AR5" s="20"/>
-      <c r="AS5" s="20"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="16"/>
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="16"/>
+      <c r="AG5" s="16"/>
+      <c r="AH5" s="16"/>
+      <c r="AI5" s="16"/>
+      <c r="AJ5" s="16"/>
+      <c r="AK5" s="16"/>
+      <c r="AL5" s="16"/>
+      <c r="AM5" s="16"/>
+      <c r="AN5" s="16"/>
+      <c r="AO5" s="16"/>
+      <c r="AP5" s="16"/>
+      <c r="AQ5" s="16"/>
+      <c r="AR5" s="16"/>
+      <c r="AS5" s="16"/>
     </row>
-    <row r="6" spans="1:45" s="25" customFormat="1" ht="17" thickBot="1">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
+    <row r="6" spans="1:45" s="21" customFormat="1" ht="15.6" thickBot="1">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:45" ht="19" thickBot="1">
-      <c r="B7" s="87" t="s">
+    <row r="7" spans="1:45" ht="18" thickBot="1">
+      <c r="B7" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="88"/>
-      <c r="D7" s="89" t="s">
+      <c r="C7" s="84"/>
+      <c r="D7" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="90"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="28"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="24"/>
     </row>
-    <row r="8" spans="1:45">
-      <c r="B8" s="64"/>
-      <c r="C8" s="65" t="s">
+    <row r="8" spans="1:45" ht="15.6">
+      <c r="B8" s="60"/>
+      <c r="C8" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="66"/>
-      <c r="E8" s="65" t="s">
+      <c r="D8" s="62"/>
+      <c r="E8" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="66"/>
-      <c r="G8" s="65" t="s">
+      <c r="F8" s="62"/>
+      <c r="G8" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="91" t="s">
+      <c r="H8" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="91" t="s">
+      <c r="I8" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="93" t="s">
+      <c r="J8" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="93" t="s">
+      <c r="K8" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="85" t="s">
+      <c r="L8" s="81" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:45" ht="17" thickBot="1">
-      <c r="B9" s="69" t="s">
+    <row r="9" spans="1:45" ht="16.2" thickBot="1">
+      <c r="B9" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="70" t="s">
+      <c r="C9" s="50"/>
+      <c r="D9" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="E9" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="70" t="s">
+      <c r="F9" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="54" t="s">
+      <c r="G9" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="92"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="86"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="82"/>
     </row>
-    <row r="10" spans="1:45" ht="35" thickTop="1">
-      <c r="B10" s="42">
+    <row r="10" spans="1:45" ht="45.6" thickTop="1">
+      <c r="B10" s="38">
         <v>1</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="55">
+        <v>1</v>
+      </c>
+      <c r="E10" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="55">
+        <v>1</v>
+      </c>
+      <c r="G10" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="52"/>
+    </row>
+    <row r="11" spans="1:45" ht="15.6">
+      <c r="B11" s="49"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55">
+        <v>2</v>
+      </c>
+      <c r="E11" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="55">
+        <v>2</v>
+      </c>
+      <c r="G11" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="34"/>
+    </row>
+    <row r="12" spans="1:45" ht="15.6">
+      <c r="B12" s="49"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="55">
+        <v>3</v>
+      </c>
+      <c r="E12" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="59">
-        <v>1</v>
-      </c>
-      <c r="E10" s="60" t="s">
+      <c r="F12" s="55">
+        <v>3</v>
+      </c>
+      <c r="G12" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="52"/>
+    </row>
+    <row r="13" spans="1:45" ht="30">
+      <c r="B13" s="49"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="55">
+        <v>4</v>
+      </c>
+      <c r="E13" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="59">
-        <v>1</v>
-      </c>
-      <c r="G10" s="68" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="56"/>
+      <c r="F13" s="55">
+        <v>4</v>
+      </c>
+      <c r="G13" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="52"/>
     </row>
-    <row r="11" spans="1:45" ht="17">
-      <c r="B11" s="53"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="59">
-        <v>2</v>
-      </c>
-      <c r="E11" s="60" t="s">
+    <row r="14" spans="1:45" ht="60">
+      <c r="B14" s="49"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="55">
+        <v>5</v>
+      </c>
+      <c r="E14" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="59">
-        <v>2</v>
-      </c>
-      <c r="G11" s="68" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="38"/>
+      <c r="F14" s="55">
+        <v>5</v>
+      </c>
+      <c r="G14" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="52"/>
     </row>
-    <row r="12" spans="1:45" ht="17">
-      <c r="B12" s="53"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="59">
-        <v>3</v>
-      </c>
-      <c r="E12" s="60" t="s">
+    <row r="15" spans="1:45" ht="60">
+      <c r="B15" s="49"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="55">
+        <v>6</v>
+      </c>
+      <c r="E15" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="59">
-        <v>3</v>
-      </c>
-      <c r="G12" s="68" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="56"/>
+      <c r="F15" s="55">
+        <v>6</v>
+      </c>
+      <c r="G15" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="34"/>
     </row>
-    <row r="13" spans="1:45" ht="34">
-      <c r="B13" s="53"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="59">
-        <v>4</v>
-      </c>
-      <c r="E13" s="60" t="s">
+    <row r="16" spans="1:45" ht="15.6">
+      <c r="B16" s="49"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="55">
+        <v>7</v>
+      </c>
+      <c r="E16" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="59">
-        <v>4</v>
-      </c>
-      <c r="G13" s="68" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="56"/>
+      <c r="F16" s="55">
+        <v>7</v>
+      </c>
+      <c r="G16" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="52"/>
     </row>
-    <row r="14" spans="1:45" ht="51">
-      <c r="B14" s="53"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="59">
-        <v>5</v>
-      </c>
-      <c r="E14" s="60" t="s">
+    <row r="17" spans="1:12" ht="15.6">
+      <c r="B17" s="49"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="55">
+        <v>8</v>
+      </c>
+      <c r="E17" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="59">
-        <v>5</v>
-      </c>
-      <c r="G14" s="68" t="s">
+      <c r="F17" s="55">
+        <v>8</v>
+      </c>
+      <c r="G17" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="56"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="52"/>
     </row>
-    <row r="15" spans="1:45" ht="17">
-      <c r="B15" s="53"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="59">
-        <v>6</v>
-      </c>
-      <c r="E15" s="60" t="s">
+    <row r="18" spans="1:12" ht="30.6" thickBot="1">
+      <c r="B18" s="49"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="55">
+        <v>9</v>
+      </c>
+      <c r="E18" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="59">
-        <v>6</v>
-      </c>
-      <c r="G15" s="68" t="s">
+      <c r="F18" s="55">
+        <v>9</v>
+      </c>
+      <c r="G18" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="38"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="52"/>
     </row>
-    <row r="16" spans="1:45" ht="34">
-      <c r="B16" s="53"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="59">
-        <v>7</v>
-      </c>
-      <c r="E16" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="59">
-        <v>7</v>
-      </c>
-      <c r="G16" s="68" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="56"/>
+    <row r="19" spans="1:12" ht="16.8" thickTop="1" thickBot="1">
+      <c r="B19" s="57"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="25"/>
     </row>
-    <row r="17" spans="1:12" ht="17">
-      <c r="B17" s="53"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="59">
-        <v>8</v>
-      </c>
-      <c r="E17" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="59">
-        <v>8</v>
-      </c>
-      <c r="G17" s="68" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="56"/>
-    </row>
-    <row r="18" spans="1:12" ht="35" thickBot="1">
-      <c r="B18" s="53"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="59">
-        <v>9</v>
-      </c>
-      <c r="E18" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="59">
-        <v>9</v>
-      </c>
-      <c r="G18" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="56"/>
-    </row>
-    <row r="19" spans="1:12" ht="18" thickTop="1" thickBot="1">
-      <c r="B19" s="61"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="29"/>
-    </row>
-    <row r="21" spans="1:12" s="39" customFormat="1">
-      <c r="A21" s="30"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
+    <row r="21" spans="1:12" s="35" customFormat="1">
+      <c r="A21" s="26"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{C61E42EC-A28A-4F34-B1F0-5B0C369C3BFF}" scale="70">
-      <selection activeCell="W13" sqref="W13"/>
+    <customSheetView guid="{D6408F3F-69A9-4377-B307-B0A0F5ECDF86}">
+      <selection activeCell="J3" sqref="J3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -5797,8 +5807,8 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{D6408F3F-69A9-4377-B307-B0A0F5ECDF86}">
-      <selection activeCell="J3" sqref="J3"/>
+    <customSheetView guid="{C61E42EC-A28A-4F34-B1F0-5B0C369C3BFF}" scale="70">
+      <selection activeCell="W13" sqref="W13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
